--- a/SEIR_2_wave/data/asympt_share.xlsx
+++ b/SEIR_2_wave/data/asympt_share.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zuzan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\corona\SEIR_2_wave\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90CF01AF-64CA-4565-9C6F-ADEE24151B6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49440642-1B8F-4F9B-8FC2-5658C4F8AF4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -579,6 +579,2046 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>as_data!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>as_data!$A$2:$A$191</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="190"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2055991279999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3199231249999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.9505593040000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.6427831880000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.8107299709999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.9815730879999993</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.15241621</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.31891482</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.488309770000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.3680307</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15.53597748</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16.705372430000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17.87911188</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20.23238345</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>21.401778400000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>22.574069690000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>23.7405683</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>25.617392890000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>26.78533968</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>28.910524930000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>30.786625430000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>31.26307242</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>32.441156370000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>33.614171740000003</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>34.784290769999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>35.95223755</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>38.070906049999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>40.164955710000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>42.518227279999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43.692690820000003</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44.864258020000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>48.153769629999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>49.780785389999998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>51.394043570000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>52.786456250000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>53.94788629</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>55.347539810000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>56.98469274</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>58.164948940000002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>58.40751693</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>60.74196233</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>61.931631619999997</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>64.033646200000007</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>65.911918959999994</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>67.341983990000003</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>69.665568129999997</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>72.014495210000007</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>73.174477069999995</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>74.566165670000004</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>75.487924050000004</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>76.661663500000003</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>76.907851910000005</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>78.082315440000002</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>80.438483349999998</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>81.617291390000005</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>83.031426580000002</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>84.199373359999996</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>85.588165630000006</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>86.271700510000002</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>87.44109546</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>88.609766329999999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>89.774816779999995</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>90.946383979999993</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>92.119399349999995</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>93.52267329</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>95.368362289999993</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>96.532688649999997</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>97.703531769999998</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>98.874374889999999</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>100.99159520000001</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>103.08274849999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>104.2499712</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>105.4142976</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>106.58152029999999</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>108.67484589999999</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>109.8536539</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>110.7964107</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>111.9708742</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>113.14606190000001</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>114.3190772</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>115.49064439999999</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>117.8156767</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>119.2102617</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>120.1341923</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>121.29562230000001</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>122.4650173</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>123.4092223</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>125.7617697</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>126.9297165</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>128.3315423</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>129.49804090000001</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>129.9592821</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>131.12940119999999</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>132.2987961</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>134.41601650000001</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>135.58613550000001</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>136.9850649</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>137.69394270000001</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>139.08997579999999</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>140.25719849999999</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>141.4251453</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>142.59309210000001</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>144.00143460000001</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>145.17589820000001</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>146.12299949999999</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>147.29601479999999</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>148.46323749999999</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>149.63046019999999</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>150.80057930000001</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>151.9634575</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>153.1234393</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>154.28921389999999</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>155.46005700000001</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>156.63524459999999</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>157.8031914</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>158.9689659</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>159.91027450000001</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>160.1492221</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>161.317893</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>162.48149530000001</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>163.64509749999999</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>164.80942390000001</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>165.97737069999999</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>166.9085422</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>167.83754139999999</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>169.00404</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>170.1712627</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>171.3384854</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>172.50788030000001</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>173.67510300000001</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>174.84449799999999</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>176.01316879999999</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>177.18039150000001</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>178.3526828</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>179.52497410000001</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>180.69509310000001</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>181.86593629999999</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>183.03605529999999</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>184.20472620000001</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>185.37484520000001</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>186.54134379999999</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>187.7063943</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>188.8721688</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>190.04011560000001</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>191.20878640000001</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>192.37818139999999</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>193.54540410000001</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>194.71552310000001</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>195.88853850000001</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>197.05938159999999</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>198.2287766</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>199.39961969999999</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>200.5690146</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>201.73985780000001</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>202.90852860000001</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>204.07719950000001</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>205.24659439999999</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>206.4145412</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>207.5817639</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>208.75043479999999</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>209.91910569999999</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>211.0856043</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>212.2499306</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>213.41498110000001</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>214.11516990000001</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>238</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>as_data!$B$2:$B$191</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="190"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.203054689999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23.029105449999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.682621319999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.85169821</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.106636529999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.847637929999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.588639329999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14.10054611</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.098515969999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18.553456990000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17.808395310000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17.806365169999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20.033429649999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>27.459684790000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>27.457654649999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>28.941687590000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>27.45359436</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>30.42247231</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>29.67741062</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>40.076197950000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42.673560119999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>47.130937320000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>51.587096420000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>53.442645140000003</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>53.812130770000003</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>53.067069089999997</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>60.122214479999997</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>54.545823660000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>61.972078799999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>64.570659050000003</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>65.683176220000007</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>73.479323019999995</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>68.275260029999998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>56.012397389999997</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>50.437224659999998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>46.348521040000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44.488506020000003</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44.485663819999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>50.05637024</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>54.514153469999997</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>52.28099856</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>62.68141</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>61.191692660000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>64.903602149999998</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>78.647249500000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>70.841358029999995</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>76.038518539999998</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>71.206783380000005</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>65.260094879999997</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>58.199671119999998</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>60.426735600000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>66.742097680000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>69.340677929999998</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>78.252996150000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>83.080671030000005</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>88.650971420000005</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>87.905909739999998</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>80.473158150000003</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>71.184045800000007</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>71.182015660000005</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>70.80846975</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>68.577344980000007</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>69.689862149999996</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>71.545410869999998</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>71.542974700000002</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>58.536674490000003</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>55.934033960000001</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>56.675035360000003</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>57.416036759999997</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>63.72815061</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>56.665696709999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>55.549119259999998</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>52.946478720000002</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>51.829901270000001</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45.881994679999998</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>50.709669560000002</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>54.42320316</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>57.021783409999998</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>59.991879439999998</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>61.847428149999999</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>62.959945320000003</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>55.897085390000001</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>51.436459980000002</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45.490583530000002</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>41.401879909999998</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>41.399849770000003</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45.856414909999998</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>52.911154269999997</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>52.166092589999998</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>51.420624879999998</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>49.932531650000001</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>46.588077660000003</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>46.957563290000003</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>46.955533150000001</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>53.267646999999997</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>53.637132630000004</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>51.405601840000003</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>55.119541460000001</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>51.401947579999998</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>50.285370129999997</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>49.540308449999998</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>48.795246759999998</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>51.393420990000003</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>53.992001250000001</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>59.934629469999997</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>61.790178179999998</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>60.673600729999997</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>59.557023270000002</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>59.926508900000002</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>56.580836820000002</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>51.749101660000001</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>49.889492670000003</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>50.630494069999997</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>53.600590089999997</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>52.855528409999998</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>50.99591942</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>53.96642147</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>56.56662584</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>56.193079930000003</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>53.218923619999998</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>50.24476731</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>47.642126779999998</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>46.897065089999998</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>44.666346359999999</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>41.321080309999999</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>39.832987080000002</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>38.716409630000001</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>37.59983218</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>37.597802029999997</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>36.481224580000003</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>36.479194440000001</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>36.105648530000003</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>34.989071080000002</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>36.473104020000001</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>37.95713696</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>38.326622589999999</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>39.067623990000001</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>39.437109620000001</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>39.063563709999997</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>39.433049339999997</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>37.944956120000001</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>35.71383135</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>33.854222350000001</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>33.109160670000001</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>32.735614759999997</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>32.733584620000002</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>31.617007170000001</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>31.986492800000001</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>33.842041510000001</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>34.583042910000003</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>34.581012770000001</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>35.322014170000003</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>35.319984030000001</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>36.060985430000002</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>35.687439519999998</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>35.313893610000001</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>35.311863469999999</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>34.566801779999999</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>33.450224329999998</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>33.07667842</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>32.703132510000003</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>31.215039279999999</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>28.612398750000001</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>26.38127398</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>25.637024350000001</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>24.75</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>24.6</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>24.5</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>24.55</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>24.65</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>24.52</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>24.45</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>24.274999999999999</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>24.2</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>23.8</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>23.7</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>23.3</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>22.8</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>22.4</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>21.95</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>21.8</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>21.6</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>21.3</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>20.85</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>20.65</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>20.5</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>20.350000000000001</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DF63-4929-B013-8A824E4DBB56}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="568636800"/>
+        <c:axId val="568635488"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="568636800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="568635488"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="568635488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="568636800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>41274</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>231775</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EB167C0-BB53-4A96-9B2B-BDF3EE7501D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -876,10 +2916,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B168"/>
+  <dimension ref="A1:B191"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
+      <selection activeCell="C168" sqref="C168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2228,7 +4268,192 @@
         <v>25</v>
       </c>
     </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A169">
+        <v>216</v>
+      </c>
+      <c r="B169">
+        <v>24.75</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A170">
+        <v>217</v>
+      </c>
+      <c r="B170">
+        <v>24.6</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A171">
+        <v>218</v>
+      </c>
+      <c r="B171">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A172">
+        <v>219</v>
+      </c>
+      <c r="B172">
+        <v>24.55</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A173">
+        <v>220</v>
+      </c>
+      <c r="B173">
+        <v>24.65</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A174">
+        <v>221</v>
+      </c>
+      <c r="B174">
+        <v>24.52</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A175">
+        <v>222</v>
+      </c>
+      <c r="B175">
+        <v>24.45</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A176">
+        <v>223</v>
+      </c>
+      <c r="B176">
+        <v>24.274999999999999</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A177">
+        <v>224</v>
+      </c>
+      <c r="B177">
+        <v>24.2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A178">
+        <v>225</v>
+      </c>
+      <c r="B178">
+        <v>23.8</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A179">
+        <v>226</v>
+      </c>
+      <c r="B179">
+        <v>23.7</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A180">
+        <v>227</v>
+      </c>
+      <c r="B180">
+        <v>23.3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A181">
+        <v>228</v>
+      </c>
+      <c r="B181">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A182">
+        <v>229</v>
+      </c>
+      <c r="B182">
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A183">
+        <v>230</v>
+      </c>
+      <c r="B183">
+        <v>21.95</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A184">
+        <v>231</v>
+      </c>
+      <c r="B184">
+        <v>21.8</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A185">
+        <v>232</v>
+      </c>
+      <c r="B185">
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A186">
+        <v>233</v>
+      </c>
+      <c r="B186">
+        <v>21.3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A187">
+        <v>234</v>
+      </c>
+      <c r="B187">
+        <v>20.85</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A188">
+        <v>235</v>
+      </c>
+      <c r="B188">
+        <v>20.65</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A189">
+        <v>236</v>
+      </c>
+      <c r="B189">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A190">
+        <v>237</v>
+      </c>
+      <c r="B190">
+        <v>20.350000000000001</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A191">
+        <v>238</v>
+      </c>
+      <c r="B191">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/SEIR_2_wave/data/asympt_share.xlsx
+++ b/SEIR_2_wave/data/asympt_share.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\corona\SEIR_2_wave\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49440642-1B8F-4F9B-8FC2-5658C4F8AF4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0975D44-6223-4458-BA9F-37030D7F6E5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1260" yWindow="2540" windowWidth="7500" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="as_data" sheetId="1" r:id="rId1"/>
@@ -1213,24 +1213,6 @@
                 <c:pt idx="183">
                   <c:v>232</c:v>
                 </c:pt>
-                <c:pt idx="184">
-                  <c:v>233</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>234</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>235</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>236</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>237</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>238</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1791,24 +1773,6 @@
                 </c:pt>
                 <c:pt idx="183">
                   <c:v>21.6</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>21.3</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>20.85</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>20.65</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>20.5</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>20.350000000000001</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2916,10 +2880,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B191"/>
+  <dimension ref="A1:B185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
-      <selection activeCell="C168" sqref="C168"/>
+    <sheetView tabSelected="1" topLeftCell="A182" workbookViewId="0">
+      <selection activeCell="A186" sqref="A186:XFD192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4404,54 +4368,6 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A186">
-        <v>233</v>
-      </c>
-      <c r="B186">
-        <v>21.3</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A187">
-        <v>234</v>
-      </c>
-      <c r="B187">
-        <v>20.85</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A188">
-        <v>235</v>
-      </c>
-      <c r="B188">
-        <v>20.65</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A189">
-        <v>236</v>
-      </c>
-      <c r="B189">
-        <v>20.5</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A190">
-        <v>237</v>
-      </c>
-      <c r="B190">
-        <v>20.350000000000001</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A191">
-        <v>238</v>
-      </c>
-      <c r="B191">
-        <v>20</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
